--- a/biology/Zoologie/Bibio_curtisii/Bibio_curtisii.xlsx
+++ b/biology/Zoologie/Bibio_curtisii/Bibio_curtisii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curtisimyia curtisii, Bibio romani, Bibio serresi, Curtisimyia eximia
 Bibio curtisii est une espèce fossile d'insectes diptères de la famille des Bibionidae et du genre Bibio.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bibio curtisii est décrite en 1856 par le naturaliste suisse Oswald Heer (1809-1883)[1],[2].
-Fossiles
-L'espèce est représentée par six collections venant toutes du gypse d'Aix-en-Provence, et des collections Murchison, de l'institut Géologique de Lyon , du Muséum de Marseille (Holotype bibio serresi M24, cotype A89) et du Muséum national d'histoire naturelle de Paris (Am67-73 et échantillon MNHN.F.B24431)[3],[4],[5],[2].
-Synonymes
-Les deux espèces Bibio romani et Bibio serresi, décrites en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[6], ont été renommées par John Skartveit et André Nel en 2017[7],[2].
-L'espèce Curtisimya eximia décrite en 1856 par le paléontologue prussien Christian Gottfried Giebel (1820-1881) a été synonymisée en Curtisimya curtisii par Matthew E. Clapham (d) en 2020[8]
-Étymologie
-L'épithète spécifique « curtisi » est un hommage à l'entomologiste et artiste britannique John Curtis (1791-1862).
-L'épithète spécifique « serresi » est un hommage au géologue et naturaliste français Marcel de Serres (1780-1862).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bibio curtisii est décrite en 1856 par le naturaliste suisse Oswald Heer (1809-1883),.
 </t>
         </is>
       </c>
@@ -548,24 +554,214 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est représentée par six collections venant toutes du gypse d'Aix-en-Provence, et des collections Murchison, de l'institut Géologique de Lyon , du Muséum de Marseille (Holotype bibio serresi M24, cotype A89) et du Muséum national d'histoire naturelle de Paris (Am67-73 et échantillon MNHN.F.B24431).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces Bibio romani et Bibio serresi, décrites en 1937 par le paléontologue français Nicolas Théobald (1903-1981), ont été renommées par John Skartveit et André Nel en 2017,.
+L'espèce Curtisimya eximia décrite en 1856 par le paléontologue prussien Christian Gottfried Giebel (1820-1881) a été synonymisée en Curtisimya curtisii par Matthew E. Clapham (d) en 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique « curtisi » est un hommage à l'entomologiste et artiste britannique John Curtis (1791-1862).
+L'épithète spécifique « serresi » est un hommage au géologue et naturaliste français Marcel de Serres (1780-1862).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Concernant Bibio romani, la diagnose de Nicolas Théobald en 1937[9],[note 1] : 
-« Insecte au corps brun noirâtre, aux ailes transparentes dépassant l'extrémité de l'abdomen. Tête arrondie. thorax gros, pronotum court, mésonotum fortement renflé. Abdomen gros, 8 segments, extrémité arrondie. pattes fortes. Ailes dépassant l'abdomen, stigma noir ; nervation de type Bibio (. fig.), C va jusqu'au sommet de l'aile, Sc faible, R, Rs, M plus fortes que les autres nervures ; au microscope, R, Rs et M montrent encore leur structure trachéenne ; on voit très nettement des spirales de chitine. »[9].
-Concernant Bibio serresi, la diagnose de Nicolas Théobald en 1937[10] : 
-« Insecte noirâtre, aile transparente atteignant à peine l'extrémité de l'abdomen. Tête allongée, renflée un peu en arrière vis-à-vis des yeux, qui sont gros et presque contigus ; deux antennes courtes, nombreux articles homonomes. thorax ovale, dépression en U assez marquée ; scutellum arrondi ; métanotum court et large. Abdomen allongé, grêle, 8 segments, le dernier porte les appendices génitaux. pattes assez fortes. ailes à stigma noir et court ; nervation du type Bibio. »[10].
-Dimensions
-Bibio serresi a une longueur de 9-10,5 mm et une aile de longueur 6,5-7,5 mm[10].
-Bibio romani a une longueur  du corps de 10 mm ; une tête de longueur 1 mm ; un thoarx de longueur 3 mm ; un abdomen de longueur 6 mm ; une aile de longueur 8,5 mm et de largeur 3 mm[9].
-Affinités
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Concernant Bibio romani, la diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte au corps brun noirâtre, aux ailes transparentes dépassant l'extrémité de l'abdomen. Tête arrondie. thorax gros, pronotum court, mésonotum fortement renflé. Abdomen gros, 8 segments, extrémité arrondie. pattes fortes. Ailes dépassant l'abdomen, stigma noir ; nervation de type Bibio (. fig.), C va jusqu'au sommet de l'aile, Sc faible, R, Rs, M plus fortes que les autres nervures ; au microscope, R, Rs et M montrent encore leur structure trachéenne ; on voit très nettement des spirales de chitine. ».
+Concernant Bibio serresi, la diagnose de Nicolas Théobald en 1937 : 
+« Insecte noirâtre, aile transparente atteignant à peine l'extrémité de l'abdomen. Tête allongée, renflée un peu en arrière vis-à-vis des yeux, qui sont gros et presque contigus ; deux antennes courtes, nombreux articles homonomes. thorax ovale, dépression en U assez marquée ; scutellum arrondi ; métanotum court et large. Abdomen allongé, grêle, 8 segments, le dernier porte les appendices génitaux. pattes assez fortes. ailes à stigma noir et court ; nervation du type Bibio. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibio serresi a une longueur de 9-10,5 mm et une aile de longueur 6,5-7,5 mm.
+Bibio romani a une longueur  du corps de 10 mm ; une tête de longueur 1 mm ; un thoarx de longueur 3 mm ; un abdomen de longueur 6 mm ; une aile de longueur 8,5 mm et de largeur 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_curtisii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Concernant Bibio romani : 
-« Cette espèce est remarquable par l'aspect robuste du thorax et de l'abdomen. La nervation des ailes présente une particularité : la nervure transversale M Cu porte l'amorce d'une nervure longitudinale supplémnetaire : ce fait est visible sur les deux ailes. »[9].
+« Cette espèce est remarquable par l'aspect robuste du thorax et de l'abdomen. La nervation des ailes présente une particularité : la nervure transversale M Cu porte l'amorce d'une nervure longitudinale supplémnetaire : ce fait est visible sur les deux ailes. ».
 Concernant Bibio serresi : 
-« L'échantillon A89 de l'Inst. Géol. de Lyon est est identique à M24, mais l'insecte est couché sur le côté. Il a été marqué Hirtea febrilis par M. de Serres. »[10].
+« L'échantillon A89 de l'Inst. Géol. de Lyon est est identique à M24, mais l'insecte est couché sur le côté. Il a été marqué Hirtea febrilis par M. de Serres. ».
 </t>
         </is>
       </c>
